--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amit/eclipse-workspace/AceAutoTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA442AB-9EFD-1748-B42E-99BCB6D10D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD034BA-95E1-F54B-BCF4-5EBCED9E3577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Status" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
   <si>
     <t>LoginTest</t>
   </si>
@@ -58,15 +58,9 @@
     <t>N</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
-    <t>sachintester.1983@gmail.com</t>
-  </si>
-  <si>
     <t>Whizdom@2020</t>
   </si>
   <si>
@@ -173,6 +167,27 @@
   </si>
   <si>
     <t>ManagerNotes</t>
+  </si>
+  <si>
+    <t>updateInspectionTest</t>
+  </si>
+  <si>
+    <t>This is autmated manager notes</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>InspectionDate</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>attachReportTest</t>
+  </si>
+  <si>
+    <t>approveInspectionTest</t>
   </si>
 </sst>
 </file>
@@ -241,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -250,6 +265,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6610619-C798-47E8-9354-7086A58F8116}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -560,7 +590,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -568,7 +598,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -576,9 +606,33 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -589,19 +643,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
@@ -611,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -624,14 +678,14 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -639,154 +693,163 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -794,100 +857,178 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="D20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="E29" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="Whizdom@2020" xr:uid="{1D993AF6-59B3-4471-A047-4D8706853AD3}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{9522ECA5-FD38-4D44-AFC8-AC3C2341E0C0}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{0FF322FD-E9C7-4BC0-8B06-AE4CC0C98F7B}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{A513020F-2061-4EA1-9AB1-F1CF5CB29CC4}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{F1579441-03A6-B44B-9FC9-AC4231E90748}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{1681CAAD-4C41-844D-B7DF-CE254EAC1E56}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{F0959626-A28D-6249-96EF-5D22405EE639}"/>
-    <hyperlink ref="E13" r:id="rId8" xr:uid="{92EA6CE5-7909-F74A-B63F-958126AC7F06}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{3F75C256-45E8-E340-829A-A58E346DCA58}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0FF322FD-E9C7-4BC0-8B06-AE4CC0C98F7B}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{F1579441-03A6-B44B-9FC9-AC4231E90748}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{1681CAAD-4C41-844D-B7DF-CE254EAC1E56}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{F0959626-A28D-6249-96EF-5D22405EE639}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{92EA6CE5-7909-F74A-B63F-958126AC7F06}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{3F75C256-45E8-E340-829A-A58E346DCA58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>